--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085A8DD-0AFC-40FF-A4E1-6C664811C71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF923DC0-5B6D-4A43-B57B-5CCCA6A49545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,13 +329,52 @@
   <si>
     <t>场景启动器自动配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件 application.yaml或application.properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaml语法(字面量，对象、Map，数组，List，Set)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件值注入(@ConfigurationProperties,@Value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件值注入数据校验(JSR303)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @PropertySource ,@ImportResource注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile(多Profile文件,yaml多文档块)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配置文件加载位置(–file:./config/、–file:./、–classpath:/config/、 –classpath:/)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部配置文件加载顺序(命令行参数、..profile、..propertySource...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/current/reference/html/spring-boot-features.html#boot-features-external-config</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +387,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -368,10 +415,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,9 +427,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1172,48 +1225,98 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="91.44140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="73.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D14" r:id="rId1" location="boot-features-external-config" display="https://docs.spring.io/spring-boot/docs/current/reference/html/spring-boot-features.html - boot-features-external-config" xr:uid="{4D7F885F-8612-4E52-A28A-1EBB0C2A3D49}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF923DC0-5B6D-4A43-B57B-5CCCA6A49545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAD273C-D90A-4362-8CCA-A97A46604DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,26 @@
   </si>
   <si>
     <t>https://docs.spring.io/spring-boot/docs/current/reference/html/spring-boot-features.html#boot-features-external-config</t>
+  </si>
+  <si>
+    <t>9.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动配置原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Conditional注解和自动配置报告(debug=true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1225,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1311,6 +1331,27 @@
         <v>84</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAD273C-D90A-4362-8CCA-A97A46604DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75E0AA-F52B-43DE-85E3-BC26DD65669C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,11 +382,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态资源映射规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thymeleaf基本用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1346,10 +1362,28 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75E0AA-F52B-43DE-85E3-BC26DD65669C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E6038-AA8F-45AC-8BCF-23D4D53453A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,42 @@
   </si>
   <si>
     <t>thymeleaf基本用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc自动配置原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义springmvc配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源引入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录拦截器(静态资源过滤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restful-crud练习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1386,6 +1422,45 @@
         <v>93</v>
       </c>
     </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E6038-AA8F-45AC-8BCF-23D4D53453A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F5AE6-06BA-4672-85E6-B3D1F15A7574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,34 @@
   </si>
   <si>
     <t>restful-crud练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误处理原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制错误页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制错误数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式Servlet容器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册Servlet三大组件(Servlet、Filter、Listener)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1461,6 +1489,37 @@
         <v>102</v>
       </c>
     </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F5AE6-06BA-4672-85E6-B3D1F15A7574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C099F02-71AA-48AB-92DB-0ABB2089F3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>注册Servlet三大组件(Servlet、Filter、Listener)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换Tomcat,jetty,netty,undertow容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式Servlet容器自动配置原理，启动原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1520,6 +1532,19 @@
         <v>109</v>
       </c>
     </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C099F02-71AA-48AB-92DB-0ABB2089F3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A9900-010A-448E-ADAD-5619B572F600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,6 +479,41 @@
   </si>
   <si>
     <t>嵌入式Servlet容器自动配置原理，启动原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.22</t>
+  </si>
+  <si>
+    <t>使用外部servlet容器启动springboot项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1545,6 +1580,45 @@
         <v>112</v>
       </c>
     </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A9900-010A-448E-ADAD-5619B572F600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE0D0B-A347-49C1-BF48-BBFBC37306DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,6 +514,18 @@
   </si>
   <si>
     <t>Docker命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整合JDBC原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1631,19 @@
         <v>121</v>
       </c>
     </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE0D0B-A347-49C1-BF48-BBFBC37306DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C978B0F-70B7-4BE3-87B7-A7AF3CFF4A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,22 @@
   </si>
   <si>
     <t>springboot整合JDBC原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整合mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整合Druid数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1644,6 +1660,22 @@
         <v>124</v>
       </c>
     </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C978B0F-70B7-4BE3-87B7-A7AF3CFF4A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285835A4-EA7E-48B0-AAA8-DE6C5A219719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,54 @@
   </si>
   <si>
     <t>11.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整合jpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整合mybatis-plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot启动原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义spirngboot starter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSR107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整合redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1400,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1676,6 +1724,61 @@
         <v>126</v>
       </c>
     </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285835A4-EA7E-48B0-AAA8-DE6C5A219719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268D6D66-AF0F-41A5-83A3-924081809CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,6 +590,30 @@
   </si>
   <si>
     <t>springboot整合redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整合rabbtimq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot整合es</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A03C43-B287-44AB-A9A3-8A0D276DE77D}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1779,6 +1803,30 @@
         <v>140</v>
       </c>
     </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
